--- a/Home.xlsx
+++ b/Home.xlsx
@@ -385,14 +385,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>

--- a/Home.xlsx
+++ b/Home.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Mahim Vai</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Mahim ToTal</t>
+  </si>
+  <si>
+    <t>Chak Chili</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +430,7 @@
       </c>
       <c r="E2">
         <f>SUM(D2:D397)</f>
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="F2">
         <f>SUM(B2:B131)</f>
@@ -456,6 +459,14 @@
       </c>
       <c r="D5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Home.xlsx
+++ b/Home.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Mahim Vai</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Chak Chili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chira </t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>Taka Joma</t>
   </si>
 </sst>
 </file>
@@ -385,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +431,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -430,11 +445,11 @@
       </c>
       <c r="E2">
         <f>SUM(D2:D397)</f>
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="F2">
         <f>SUM(B2:B131)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -467,6 +482,22 @@
       </c>
       <c r="D6">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Home.xlsx
+++ b/Home.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Mahim Vai</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Chak Chili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chira </t>
   </si>
   <si>
     <t>dim</t>
@@ -397,7 +394,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +429,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -445,7 +442,7 @@
       </c>
       <c r="E2">
         <f>SUM(D2:D397)</f>
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F2">
         <f>SUM(B2:B131)</f>
@@ -484,17 +481,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>30</v>

--- a/Home.xlsx
+++ b/Home.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Mahim Vai</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>dim</t>
-  </si>
-  <si>
-    <t>Taka Joma</t>
   </si>
 </sst>
 </file>
@@ -394,7 +391,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,12 +425,6 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>500</v>
-      </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -446,7 +437,7 @@
       </c>
       <c r="F2">
         <f>SUM(B2:B131)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Home.xlsx
+++ b/Home.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Mahim Vai</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>dim</t>
+  </si>
+  <si>
+    <t>begun</t>
+  </si>
+  <si>
+    <t>Alu</t>
+  </si>
+  <si>
+    <t>Borboti</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Labu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              Total</t>
   </si>
 </sst>
 </file>
@@ -388,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,9 +420,10 @@
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +443,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -437,26 +462,51 @@
       </c>
       <c r="F2">
         <f>SUM(B2:B131)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>SUM(E2:F2)</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -464,7 +514,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>140</v>
+      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -472,7 +528,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>10</v>
       </c>

--- a/Home.xlsx
+++ b/Home.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Mahim Vai</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Mahim ToTal</t>
   </si>
   <si>
-    <t>Chak Chili</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
@@ -65,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">                                              Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shak </t>
+  </si>
+  <si>
+    <t>Rui Fish</t>
+  </si>
+  <si>
+    <t>Potol</t>
   </si>
 </sst>
 </file>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +451,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -458,7 +464,7 @@
       </c>
       <c r="E2">
         <f>SUM(D2:D397)</f>
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="F2">
         <f>SUM(B2:B131)</f>
@@ -467,7 +473,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -479,12 +485,12 @@
         <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -497,7 +503,7 @@
       </c>
       <c r="G4">
         <f>SUM(E2:F2)</f>
-        <v>470</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -516,32 +522,62 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>20</v>
       </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Home.xlsx
+++ b/Home.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Mahim Vai</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Potol</t>
+  </si>
+  <si>
+    <t>Rice</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +471,7 @@
       </c>
       <c r="F2">
         <f>SUM(B2:B131)</f>
-        <v>260</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -503,7 +506,7 @@
       </c>
       <c r="G4">
         <f>SUM(E2:F2)</f>
-        <v>579</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,6 +552,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>

--- a/Home.xlsx
+++ b/Home.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Mahim Vai</t>
   </si>
@@ -418,7 +418,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="F2">
         <f>SUM(B2:B131)</f>
-        <v>330</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
       </c>
       <c r="G4">
         <f>SUM(E2:F2)</f>
-        <v>649</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,6 +566,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -574,6 +580,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>

--- a/Home.xlsx
+++ b/Home.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Mahim Vai</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Rice</t>
+  </si>
+  <si>
+    <t>alu</t>
+  </si>
+  <si>
+    <t>Roshun+ chili</t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +477,7 @@
       </c>
       <c r="F2">
         <f>SUM(B2:B131)</f>
-        <v>430</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,7 +512,7 @@
       </c>
       <c r="G4">
         <f>SUM(E2:F2)</f>
-        <v>749</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,11 +600,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Home.xlsx
+++ b/Home.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Mahim Vai</t>
   </si>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="F2">
         <f>SUM(B2:B131)</f>
-        <v>462</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="G4">
         <f>SUM(E2:F2)</f>
-        <v>781</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -619,6 +619,14 @@
       </c>
       <c r="B12">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Home.xlsx
+++ b/Home.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Mahim Vai</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>Roshun+ chili</t>
+  </si>
+  <si>
+    <t>shak</t>
+  </si>
+  <si>
+    <t>gagor potol</t>
+  </si>
+  <si>
+    <t>Total done 5/9/2021</t>
+  </si>
+  <si>
+    <t>close</t>
   </si>
 </sst>
 </file>
@@ -421,16 +433,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
@@ -477,7 +489,7 @@
       </c>
       <c r="F2">
         <f>SUM(B2:B131)</f>
-        <v>497</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -512,7 +524,7 @@
       </c>
       <c r="G4">
         <f>SUM(E2:F2)</f>
-        <v>816</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -627,6 +639,30 @@
       </c>
       <c r="B13">
         <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
